--- a/Monthly Dept Head Tracking Tool/Monthly_Intake_Summary.xlsx
+++ b/Monthly Dept Head Tracking Tool/Monthly_Intake_Summary.xlsx
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -534,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -542,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>407</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -603,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -619,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -627,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -643,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -656,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -672,7 +672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -680,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -688,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -696,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -712,7 +712,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>132</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -720,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>627</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -741,7 +741,7 @@
         <v>32</v>
       </c>
       <c r="B36">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -749,7 +749,7 @@
         <v>33</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -770,7 +770,7 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -786,7 +786,7 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -794,7 +794,7 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -802,7 +802,7 @@
         <v>40</v>
       </c>
       <c r="B46">
-        <v>714</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
